--- a/projeto1/test/graphs/xls/aprox-error-7-1024MB.xlsx
+++ b/projeto1/test/graphs/xls/aprox-error-7-1024MB.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\betoc\Documents\graphs\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\betoc\Documents\git\string-processing\projeto1\test\graphs\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -744,34 +744,105 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="18"/>
+              <c:pt idx="0">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>10</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>11</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>12</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>13</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>14</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>15</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>16</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>17</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>18</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>19</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>20</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>21</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>22</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>23</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>24</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>25</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'result-aprox-error-1-50MB'!$E$1:$E$15</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'result-aprox-error-1-50MB'!$E$1:$E$15</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'result-aprox-error-1-50MB'!$E$8:$E$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>23.850999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.738</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.337</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.722999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23.436</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23.361000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23.391999999999999</c:v>
+                </c:pt>
                 <c:pt idx="7">
-                  <c:v>23.850999999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>23.738</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>24.337</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>24.722999999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>23.436</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>23.361000000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>23.391999999999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
                   <c:v>23.356999999999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -822,64 +893,135 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="18"/>
+              <c:pt idx="0">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>10</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>11</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>12</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>13</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>14</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>15</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>16</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>17</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>18</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>19</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>20</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>21</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>22</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>23</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>24</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>25</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'result-aprox-error-1-50MB'!$E$16:$E$40</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'result-aprox-error-1-50MB'!$E$16:$E$40</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'result-aprox-error-1-50MB'!$E$23:$E$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>35.856999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37.917999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37.015000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38.845999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.43</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44.679000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>47.792999999999999</c:v>
+                </c:pt>
                 <c:pt idx="7">
-                  <c:v>35.856999999999999</c:v>
+                  <c:v>41.615000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>37.917999999999999</c:v>
+                  <c:v>57.780999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>37.015000000000001</c:v>
+                  <c:v>53.970999999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>38.845999999999997</c:v>
+                  <c:v>57.555999999999997</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>40.43</c:v>
+                  <c:v>64.373000000000005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44.679000000000002</c:v>
+                  <c:v>69.775000000000006</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>47.792999999999999</c:v>
+                  <c:v>71.227999999999994</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>41.615000000000002</c:v>
+                  <c:v>73.147999999999996</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>57.780999999999999</c:v>
+                  <c:v>71.921000000000006</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>53.970999999999997</c:v>
+                  <c:v>75.75</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>57.555999999999997</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>64.373000000000005</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>69.775000000000006</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>71.227999999999994</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>73.147999999999996</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>71.921000000000006</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>75.75</c:v>
-                </c:pt>
-                <c:pt idx="24">
                   <c:v>78.438000000000002</c:v>
                 </c:pt>
               </c:numCache>
@@ -927,64 +1069,135 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="18"/>
+              <c:pt idx="0">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>10</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>11</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>12</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>13</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>14</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>15</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>16</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>17</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>18</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>19</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>20</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>21</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>22</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>23</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>24</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>25</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'result-aprox-error-1-50MB'!$E$41:$E$65</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'result-aprox-error-1-50MB'!$E$41:$E$65</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'result-aprox-error-1-50MB'!$E$48:$E$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>25.486999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.268000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.600999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.120999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.896999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.402000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.143999999999998</c:v>
+                </c:pt>
                 <c:pt idx="7">
-                  <c:v>25.486999999999998</c:v>
+                  <c:v>20.231999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>26.268000000000001</c:v>
+                  <c:v>20.123999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>24.600999999999999</c:v>
+                  <c:v>20.492999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21.120999999999999</c:v>
+                  <c:v>20.189</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>20.896999999999998</c:v>
+                  <c:v>20.186</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20.402000000000001</c:v>
+                  <c:v>19.765999999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>20.143999999999998</c:v>
+                  <c:v>20.841000000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>20.231999999999999</c:v>
+                  <c:v>19.600999999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>20.123999999999999</c:v>
+                  <c:v>20.425000000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>20.492999999999999</c:v>
+                  <c:v>19.879000000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>20.189</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>20.186</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>19.765999999999998</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>20.841000000000001</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>19.600999999999999</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>20.425000000000001</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>19.879000000000001</c:v>
-                </c:pt>
-                <c:pt idx="24">
                   <c:v>19.706</c:v>
                 </c:pt>
               </c:numCache>

--- a/projeto1/test/graphs/xls/aprox-error-7-1024MB.xlsx
+++ b/projeto1/test/graphs/xls/aprox-error-7-1024MB.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10814"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\betoc\Documents\git\string-processing\projeto1\test\graphs\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cavalcanti/Documents/git/ufpe/string-processing/projeto1/test/graphs/xls/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3543E408-8248-E048-B75C-EF16641225E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="result-aprox-error-1-50MB" sheetId="1" r:id="rId1"/>
@@ -90,7 +91,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -601,10 +602,10 @@
     <cellStyle name="Ênfase5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Ênfase6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Incorreto" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Neutra" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Neutro" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Ruim" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Saída" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Texto de Aviso" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Texto Explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
@@ -663,17 +664,16 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pt-BR"/>
-              <a:t>Resultado Aproximad</a:t>
+              <a:t>Arquivo </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="pt-BR" baseline="0"/>
-              <a:t>o english.1024MB - Erro: 7</a:t>
+              <a:t>1024MB - Busca Aproximada - Erro: 7</a:t>
             </a:r>
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -713,12 +713,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'result-aprox-error-1-50MB'!$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
+            <c:v>agrep</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -856,8 +851,179 @@
           </c:extLst>
         </c:ser>
         <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>wu-manber</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="18"/>
+              <c:pt idx="0">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>10</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>11</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>12</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>13</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>14</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>15</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>16</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>17</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>18</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>19</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>20</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>21</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>22</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>23</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>24</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>25</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'result-aprox-error-1-50MB'!$E$41:$E$65</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'result-aprox-error-1-50MB'!$E$48:$E$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>25.486999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.268000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.600999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.120999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.896999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.402000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.143999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.231999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.123999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.492999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20.189</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20.186</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19.765999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20.841000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19.600999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20.425000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19.879000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19.706</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000013-B87A-43C1-826D-E90174DD1A5D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>'result-aprox-error-1-50MB'!$A$34</c:f>
@@ -1031,182 +1197,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000012-B87A-43C1-826D-E90174DD1A5D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'result-aprox-error-1-50MB'!$A$45</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strLit>
-              <c:ptCount val="18"/>
-              <c:pt idx="0">
-                <c:v>8</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>9</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>10</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>11</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>12</c:v>
-              </c:pt>
-              <c:pt idx="5">
-                <c:v>13</c:v>
-              </c:pt>
-              <c:pt idx="6">
-                <c:v>14</c:v>
-              </c:pt>
-              <c:pt idx="7">
-                <c:v>15</c:v>
-              </c:pt>
-              <c:pt idx="8">
-                <c:v>16</c:v>
-              </c:pt>
-              <c:pt idx="9">
-                <c:v>17</c:v>
-              </c:pt>
-              <c:pt idx="10">
-                <c:v>18</c:v>
-              </c:pt>
-              <c:pt idx="11">
-                <c:v>19</c:v>
-              </c:pt>
-              <c:pt idx="12">
-                <c:v>20</c:v>
-              </c:pt>
-              <c:pt idx="13">
-                <c:v>21</c:v>
-              </c:pt>
-              <c:pt idx="14">
-                <c:v>22</c:v>
-              </c:pt>
-              <c:pt idx="15">
-                <c:v>23</c:v>
-              </c:pt>
-              <c:pt idx="16">
-                <c:v>24</c:v>
-              </c:pt>
-              <c:pt idx="17">
-                <c:v>25</c:v>
-              </c:pt>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:autoCat val="1"/>
-                </c:ext>
-              </c:extLst>
-            </c:strLit>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'result-aprox-error-1-50MB'!$E$41:$E$65</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'result-aprox-error-1-50MB'!$E$48:$E$65</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>25.486999999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>26.268000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>24.600999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>21.120999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20.896999999999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>20.402000000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>20.143999999999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>20.231999999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>20.123999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>20.492999999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>20.189</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20.186</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>19.765999999999998</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>20.841000000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>19.600999999999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>20.425000000000001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>19.879000000000001</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>19.706</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000013-B87A-43C1-826D-E90174DD1A5D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1261,7 +1251,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1291,6 +1280,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1360,7 +1350,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -1383,7 +1373,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1393,7 +1382,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -1458,7 +1447,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2085,7 +2073,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2365,19 +2359,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A8:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:F65"/>
+    <sheetView tabSelected="1" topLeftCell="H9" workbookViewId="0">
+      <selection activeCell="Y28" sqref="Y28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -2397,7 +2391,7 @@
         <v>56223203</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -2417,7 +2411,7 @@
         <v>47506807</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -2437,7 +2431,7 @@
         <v>27906599</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -2457,7 +2451,7 @@
         <v>10675163</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -2477,7 +2471,7 @@
         <v>5359814</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -2497,7 +2491,7 @@
         <v>349667</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -2517,7 +2511,7 @@
         <v>556303</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -2537,7 +2531,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -2557,7 +2551,7 @@
         <v>17518194</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -2577,7 +2571,7 @@
         <v>17334520</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -2597,7 +2591,7 @@
         <v>16333315</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -2617,7 +2611,7 @@
         <v>8659757</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -2637,7 +2631,7 @@
         <v>4967060</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -2657,7 +2651,7 @@
         <v>2178002</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -2677,7 +2671,7 @@
         <v>790254</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -2697,7 +2691,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -2717,7 +2711,7 @@
         <v>160369</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -2737,7 +2731,7 @@
         <v>10538</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -2757,7 +2751,7 @@
         <v>2833</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -2777,7 +2771,7 @@
         <v>7130</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -2797,7 +2791,7 @@
         <v>8147</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -2817,7 +2811,7 @@
         <v>17162</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -2837,7 +2831,7 @@
         <v>2807</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>9</v>
       </c>
@@ -2857,7 +2851,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>9</v>
       </c>
@@ -2877,7 +2871,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -2897,7 +2891,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>20</v>
       </c>
@@ -2917,7 +2911,7 @@
         <v>17519293</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>20</v>
       </c>
@@ -2937,7 +2931,7 @@
         <v>17335732</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>20</v>
       </c>
@@ -2957,7 +2951,7 @@
         <v>16339093</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>20</v>
       </c>
@@ -2977,7 +2971,7 @@
         <v>8671471</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>20</v>
       </c>
@@ -2997,7 +2991,7 @@
         <v>4975961</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>20</v>
       </c>
@@ -3017,7 +3011,7 @@
         <v>2182253</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>20</v>
       </c>
@@ -3037,7 +3031,7 @@
         <v>792176</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>20</v>
       </c>
@@ -3057,7 +3051,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>20</v>
       </c>
@@ -3077,7 +3071,7 @@
         <v>161334</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>20</v>
       </c>
@@ -3097,7 +3091,7 @@
         <v>10936</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>20</v>
       </c>
@@ -3117,7 +3111,7 @@
         <v>3086</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>20</v>
       </c>
@@ -3137,7 +3131,7 @@
         <v>7412</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>20</v>
       </c>
@@ -3157,7 +3151,7 @@
         <v>8411</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>20</v>
       </c>
@@ -3177,7 +3171,7 @@
         <v>17358</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>20</v>
       </c>
@@ -3197,7 +3191,7 @@
         <v>2955</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>20</v>
       </c>
@@ -3217,7 +3211,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>20</v>
       </c>
@@ -3237,7 +3231,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>20</v>
       </c>
